--- a/bin/Excel/sample.xlsx
+++ b/bin/Excel/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hii\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B85905-1F3B-44B5-9CDE-C592B85D7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A0EB9-7082-452A-B410-7CB4AEDBC9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="570" windowWidth="8460" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="570" windowWidth="8460" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>salary</t>
-  </si>
-  <si>
     <t>nousad</t>
   </si>
   <si>
@@ -46,6 +43,21 @@
   </si>
   <si>
     <t>samer</t>
+  </si>
+  <si>
+    <t>vfddf</t>
+  </si>
+  <si>
+    <t>vdf</t>
+  </si>
+  <si>
+    <t>dfvgfd</t>
+  </si>
+  <si>
+    <t>vfgfd</t>
+  </si>
+  <si>
+    <t>vfgd</t>
   </si>
 </sst>
 </file>
@@ -366,7 +378,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,47 +388,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>50000</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>60000</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>30000</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>567578</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>57575</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
